--- a/tests/destinations_create_one.xlsx
+++ b/tests/destinations_create_one.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LZ4R1B\Desktop\AAM API\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5F6710-E79E-409F-975B-F73845A0A86F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147FEAB6-007B-454D-829D-A0A73275653C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{433EA9BF-C602-49A1-8C85-E837E4F4D3BD}"/>
+    <workbookView xWindow="1560" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{433EA9BF-C602-49A1-8C85-E837E4F4D3BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,10 +42,10 @@
     <t>destinationType</t>
   </si>
   <si>
-    <t>"test1234"</t>
+    <t>test1234</t>
   </si>
   <si>
-    <t>"PUSH"</t>
+    <t>PUSH</t>
   </si>
 </sst>
 </file>
@@ -399,7 +399,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD35CD57-95F0-4858-9EFF-3F79C1354053}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
